--- a/イベントシステム文書/イベントシステムのスケジュール表_鈕.xlsx
+++ b/イベントシステム文書/イベントシステムのスケジュール表_鈕.xlsx
@@ -504,16 +504,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -850,7 +850,7 @@
   <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12"/>
@@ -863,43 +863,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="48" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
     </row>
     <row r="3" spans="1:35" ht="22.2">
       <c r="A3" s="29" t="s">
@@ -1204,8 +1204,8 @@
       <c r="U10" s="9"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -1243,12 +1243,12 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="12"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
@@ -1287,9 +1287,9 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="10"/>
       <c r="AH12" s="10"/>
@@ -1577,20 +1577,20 @@
       <c r="AI18" s="22"/>
     </row>
     <row r="19" spans="6:35" ht="22.2">
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>1</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="21">
         <v>43621</v>
       </c>
@@ -1633,28 +1633,28 @@
       <c r="AC19" s="21">
         <v>43646</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
     </row>
     <row r="20" spans="6:35" ht="22.2">
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <v>2</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
       <c r="P20" s="21">
         <v>43621</v>
       </c>
@@ -1683,20 +1683,20 @@
       <c r="AI20" s="28"/>
     </row>
     <row r="21" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <v>3</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="21">
         <v>43623</v>
       </c>
@@ -1737,20 +1737,20 @@
       <c r="AI21" s="27"/>
     </row>
     <row r="22" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <v>4</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
       <c r="P22" s="21">
         <v>43626</v>
       </c>
@@ -1779,20 +1779,20 @@
       <c r="AI22" s="27"/>
     </row>
     <row r="23" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <v>5</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="s">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
       <c r="P23" s="21">
         <v>43628</v>
       </c>
@@ -1821,20 +1821,20 @@
       <c r="AI23" s="27"/>
     </row>
     <row r="24" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>6</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
       <c r="P24" s="21">
         <v>43630</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21">
-        <v>43634</v>
+        <v>43636</v>
       </c>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
@@ -1863,22 +1863,22 @@
       <c r="AI24" s="27"/>
     </row>
     <row r="25" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>7</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="s">
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
       <c r="P25" s="21">
-        <v>43635</v>
+        <v>43637</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
@@ -1887,7 +1887,7 @@
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21">
-        <v>43637</v>
+        <v>43640</v>
       </c>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
@@ -1905,22 +1905,22 @@
       <c r="AI25" s="27"/>
     </row>
     <row r="26" spans="6:35" ht="27.9" customHeight="1">
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>8</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="s">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="21">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
@@ -1947,20 +1947,20 @@
       <c r="AI26" s="27"/>
     </row>
     <row r="27" spans="6:35" ht="22.2">
-      <c r="F27" s="25">
+      <c r="F27" s="23">
         <v>9</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
       <c r="P27" s="21">
         <v>43646</v>
       </c>
@@ -1970,83 +1970,83 @@
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
     </row>
     <row r="28" spans="6:35">
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
     </row>
     <row r="29" spans="6:35">
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="74">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="D3" s="2">
         <f ca="1">TODAY()</f>
-        <v>43637</v>
+        <v>43640</v>
       </c>
       <c r="E3" s="2"/>
     </row>
